--- a/info_1.xlsx
+++ b/info_1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="332">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -532,6 +532,501 @@
   </si>
   <si>
     <t xml:space="preserve">Yes, I am interested in a leadership position within the club. My experience in IoT programming and coding provides a strong foundation for taking on a leadership role. I am confident in my ability to contribute to the club's success through project management, team coordination, and technical guidance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience and knowledge purpose </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pranav Sarnikar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22AIFT1111214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pranav.sarnikar.it@ghrcem.raisoni.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI/ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am very much interested in the field of the Robotics. With the knowledge of Machine Learning and Computer Programming I would like to build upon the foundation of the Robotics and be able to make better use my skills. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As of now I don’t posses any prior experience in the field of Robotics. But I want to broaden my horizons and be able to make valuable contributions to the field of Robotics. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, I am interested in holding a leadership position at the E-Yantra Robotics Club. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yogesh Bangale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22AETN1101048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yogeshbangale196@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08888611980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to learn about Robotics technology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes , I participate in E yantr compilation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABHIJEET SINGH CHAUHAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021AETN1111124 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhijeetsinghchauhan17@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09322807327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronic and Telecommunication </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORTH YEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kshitij parkhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23AETN1101021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kshitij.parkhi.etc@ghrcem.raisoni.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have my kine interest in electronics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have not made robotics model but make electronics model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayur Chaudhari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mayuchaudhari321@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Science Engineering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Because I have the interest in automation and explore new things.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, Using Aurduino UNO i and my colleagues made water detection system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prince Maurya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobbies and intresting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No but learning something </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratham Tannirwar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22AIFT1101122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tannirwarpratham@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because I am interested in ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netik Patil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23AETN1108010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">netikpatil930@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take the additional information about robotics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumit Sutar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021AETN1101044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sumitsutar922@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.tech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to enhance my knowledge in the field of robotics for better future opportunities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm aware about the basic of robotics......in academic I have robotics subject ...in which I learned basic things about robotics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rushi Budhawat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22AETN1101043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rushi.budhawat.etc@ghrcem.raisoni.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robotics club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohit Rajput </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23AIFT1101017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rohit.rajput.it@ghrcem.raisoni.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information Technology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have Intrest in Robotics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anish mandal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23ACAI1101087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anishmandal534@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To know in deep of Ai and understand the modified version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radhika Naigaonkar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23AETN1101099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radhikanaigaonkar@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a opportunity to gain knowledge and more information .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohan Dhawale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23AETN1101100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rohandhawale005@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Btech </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparation for future </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balaji Kadam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23ACAI1101079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kadambalaji279@com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill devolopmemt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaditya Maindarkar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23ACAI1101115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adityamaindarkar@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would like to study about robotics and how will apply and work the AI and Machine Learning in advanced view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No,I have no any experience but I know an basic of robotics in practical from youtube platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">● Mechanical Design, ● Electronics, ● Artificial Intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRASAD SANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22ACSE1301017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prasad.sant.aiml@ghrcem.raisoni.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE(AIML)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have interest in joining robotics club because it will enable me to develop valuable technical and problem-solving skills, offers hands-on learning opportunities and collaborate with like-minded peers. Furthermore, it gives you the chance to explore your passion for robotics and potentially prepare you for the career path in future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sourabh Sonwane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22AEL1101047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saurabhsonawane515@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Btech Electrical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For improving knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luckyraj N Yemul </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23ACCS1101029 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">luckyrajnandkishoryemul8366@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE-CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prasad Waster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22ACSE1101028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prasadwaster@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would like to join the Robotics Club because of my passion for technology and interest in enhancing my knowledge in designing and programming robots. It's an opportunity to stay engaged with others, working over exciting projects and building really valuable skills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shraddha Labade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22ACSE1121111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shraddhalabade7858@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE (AIML)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robotics is a rapidly growing field,for the  Future Preparation i wants to join the Robotics Club ,also for Develop technical skills,expands opportunities, work in teams and learn communication, collaboration, and leadership skills. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaidehi Kantaappa Daruwale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daruwale.vaidehi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIRST YEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It seems interesting. And I need to learn programming languages so I feel should join the club.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actually no.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will need learn programming languages, because I am not that skilled in that. I hope I will get guidance from seniors. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaitanya Rajmane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23ACSE1121123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chaitanya.rajmane.aiml@ghrcem.raisoni.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cse(Aiml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm interested in joining the Robotics Club because I'm passionate about robotics and automation and i see it as an opportunity to deepen my understanding and skills in this field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">● Mechanical Design, ● Artificial Intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARTH HINGANKAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parthhingankar2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE(CS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joining the Robotics Club offers an exciting opportunity to apply engineering principles, collaborate on innovative projects, and develop hands-on skills in robotics and programming. It’s a chance to learn, create, and solve real-world challenges with minded individuals, while also staying at the forefront of technological advancements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, I have prior experience in robotics and related fields. I’ve worked on projects involving Raspberry Pi.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">● Mechanical Design, ● Electronics, ● PROGRAMMING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shubham Dhumal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23AIFT1122035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cyqrion@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m excited about the hands-on experience and collaboration with like-minded individuals that the club offer that's why I am interested in joining the club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansi Pathare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22ACSE1101004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patharemansi68@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE -Aiml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am interested in joining the Robotics Club because it offers a hands-on opportunity to apply my knowledge in AI, machine learning, and programming to real-world challenges. Being part of the club will allow me to collaborate with like-minded peers, enhance my problem-solving skills, and gain practical experience in robotics, which is a key area of interest for my future career in AI and technology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankita Surywanshi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIFT1121208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankita.surywanshi.it@ghrcem.raisoni.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information technology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To increase the technical skills .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yogeshwar Wadile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23ACSE1101074 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yogeshwarwadile99@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Skill development </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kshitij Akash Jaiswal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23ACSE1100038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaiswalkshitij143@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE(AI&amp;ML)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because I want extra knowledge about robotics clubs provide an excellent opportunity for students to explore the world of robotics and develop a range of skills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payal Bhawar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23AETN1101046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payal.bhawar.etc@ghrcem.raisoni.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E&amp;Tc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like to improve the skills </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To learn new things and explore learning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratik mane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22AETN1112027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pratikmane4343@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+I have a keen interest in robotics, particularly in designing and programming. I have already built a basic model of a drone in my second year.</t>
   </si>
 </sst>
 </file>
@@ -653,20 +1148,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="45.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="45.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="57.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="12" style="0" width="18.88"/>
   </cols>
@@ -1696,6 +2191,1235 @@
         <v>167</v>
       </c>
       <c r="L28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>45516.8029923727</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>7378769087</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>45517.4963447338</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>7038604594</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>45517.6114754283</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>45518.5274217361</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>45518.5372054167</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>9699992822</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>45518.5593934838</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>8390041339</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>45518.5617527546</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>9137603195</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>45518.5653502546</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>9307359071</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
+        <v>45518.5771201505</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>9307552579</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>45518.5907494329</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>9370161644</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
+        <v>45518.5947765162</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>8830362327</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
+        <v>45518.5972835417</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>9767730843</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
+        <v>45518.6325618171</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>7378769087</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
+        <v>45518.6338916435</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>8767647887</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
+        <v>45518.6443943634</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>9404272095</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="n">
+        <v>45518.6452160185</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>7499126940</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="n">
+        <v>45518.6459597685</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>9172131257</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
+        <v>45518.6602179861</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>9860130748</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="n">
+        <v>45518.6651667361</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>7058537211</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="n">
+        <v>45518.6897843519</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>9022656284</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="n">
+        <v>45518.7007660185</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>7385795513</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="n">
+        <v>45518.7144846181</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>9834748378</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="n">
+        <v>45518.7249496875</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>7387477858</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="n">
+        <v>45518.7296216088</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>7709989860</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="n">
+        <v>45518.7514717245</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>9579422517</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="n">
+        <v>45518.7528124537</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>9665686723</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="n">
+        <v>45518.7530384259</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>7888228269</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="n">
+        <v>45518.7869442361</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>9764788793</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="n">
+        <v>45518.8105647222</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>7721076375</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="n">
+        <v>45518.8667844329</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>9923260665</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="n">
+        <v>45519.007793831</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>8263854385</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="n">
+        <v>45519.3445880903</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>9322686902</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="n">
+        <v>45519.9321268403</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>9307764871</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="n">
+        <v>45522.4738609375</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>9579117298</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L62" s="2" t="s">
         <v>20</v>
       </c>
     </row>
